--- a/va_facility_data_2025-02-20/Cameron VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cameron%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cameron VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cameron%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R541b6f92988b4c96bedd9c3305796090"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra9eac7794b374d09848a1767a8cd6f94"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R75112eaa53a24e0089f4a63ace689e1d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R094fcc5e1c6a4d5589f966661921de80"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc061232ae97c4e629263d6e9f1b4b97c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf7ff77c730bc48ccaad8eb0b5978c435"/>
   </x:sheets>
 </x:workbook>
 </file>
